--- a/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\Logica\Raymond\Lógica y Argumentación - 1, 2, 8 - 2024.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EB4DF2-A5EC-4014-B69F-B4E29FD72D94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076C97B-9991-4AB4-8B77-ABB7FB4E1881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="465" windowWidth="12855" windowHeight="9750" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
+    <workbookView xWindow="7785" yWindow="60" windowWidth="12690" windowHeight="10665" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Grupos de Lógica - Prácticas - Fernando García </t>
   </si>
@@ -60,9 +60,6 @@
     <t>Grupo 3</t>
   </si>
   <si>
-    <t>Sharly Jackelyn Centeno Arredondo</t>
-  </si>
-  <si>
     <t>Sarai Pascual Justo</t>
   </si>
   <si>
@@ -84,12 +81,6 @@
     <t>Cristopher Diaz Huamani</t>
   </si>
   <si>
-    <t>Grupo 5 ♪</t>
-  </si>
-  <si>
-    <t>(no estuvieron al hacer grupos)</t>
-  </si>
-  <si>
     <t>Ximena Machacca Yucra</t>
   </si>
   <si>
@@ -117,10 +108,22 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>grupo2</t>
-  </si>
-  <si>
-    <t>grupo3</t>
+    <t>Práctica calificada 1</t>
+  </si>
+  <si>
+    <t>parte 1</t>
+  </si>
+  <si>
+    <t>parte 2</t>
+  </si>
+  <si>
+    <t>parte 3</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Sherly Jackelyn Centeno Arredondo</t>
   </si>
 </sst>
 </file>
@@ -143,12 +146,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -163,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52402EC4-2AF4-43A8-AC2E-CA0615578C59}">
-  <dimension ref="B2:G30"/>
+  <dimension ref="B2:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +506,7 @@
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,32 +515,50 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -543,40 +571,98 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3">
+        <f>H5+I5+J5</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>6</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <f t="shared" ref="K6:K26" si="0">H6+I6+J6</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -589,34 +675,96 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -627,122 +775,233 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3">
         <v>11</v>
       </c>
-      <c r="G17">
+      <c r="H17">
+        <v>3.5</v>
+      </c>
+      <c r="I17">
+        <v>2.5</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+      <c r="G18" s="3">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>4.5</v>
+      </c>
+      <c r="I18">
+        <v>9.5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="G18">
+      <c r="G19" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="3">
+        <v>11</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="G19">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="G21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>3.5</v>
+      </c>
+      <c r="I22">
+        <v>6.5</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
+      <c r="G23" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="G23">
+      <c r="G24" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="G25" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25">
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>4</v>
+      </c>
+      <c r="K25" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-      <c r="G28">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30">
-        <v>13</v>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0076C97B-9991-4AB4-8B77-ABB7FB4E1881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86366FCC-D299-4CA2-9606-C4DAC854E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7785" yWindow="60" windowWidth="12690" windowHeight="10665" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Grupos de Lógica - Prácticas - Fernando García </t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Sherly Jackelyn Centeno Arredondo</t>
+  </si>
+  <si>
+    <t>TG2</t>
+  </si>
+  <si>
+    <t>PC2</t>
   </si>
 </sst>
 </file>
@@ -174,13 +180,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52402EC4-2AF4-43A8-AC2E-CA0615578C59}">
-  <dimension ref="B2:K26"/>
+  <dimension ref="B2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,30 +512,36 @@
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -558,7 +570,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -571,7 +583,7 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>18</v>
       </c>
       <c r="H5">
@@ -583,16 +595,16 @@
       <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <f>H5+I5+J5</f>
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>18</v>
       </c>
       <c r="H6">
@@ -604,16 +616,16 @@
       <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <f t="shared" ref="K6:K26" si="0">H6+I6+J6</f>
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>18</v>
       </c>
       <c r="H7">
@@ -625,16 +637,16 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>18</v>
       </c>
       <c r="H8">
@@ -646,23 +658,23 @@
       <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -675,7 +687,7 @@
       <c r="F11">
         <v>6</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>18</v>
       </c>
       <c r="H11">
@@ -687,16 +699,16 @@
       <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>18</v>
       </c>
       <c r="H12">
@@ -708,16 +720,16 @@
       <c r="J12">
         <v>3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>18</v>
       </c>
       <c r="H13">
@@ -729,16 +741,16 @@
       <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>18</v>
       </c>
       <c r="H14">
@@ -750,19 +762,19 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>18</v>
       </c>
@@ -775,7 +787,7 @@
       <c r="F16">
         <v>3</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>11</v>
       </c>
       <c r="H16">
@@ -787,7 +799,7 @@
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -796,7 +808,7 @@
       <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>11</v>
       </c>
       <c r="H17">
@@ -808,7 +820,7 @@
       <c r="J17">
         <v>3</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -817,7 +829,7 @@
       <c r="C18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>11</v>
       </c>
       <c r="H18">
@@ -829,7 +841,7 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -838,7 +850,7 @@
       <c r="C19" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>11</v>
       </c>
       <c r="H19">
@@ -850,7 +862,7 @@
       <c r="J19">
         <v>2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -859,7 +871,7 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>11</v>
       </c>
       <c r="H20">
@@ -871,7 +883,7 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -880,8 +892,8 @@
       <c r="B21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="G21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
@@ -896,7 +908,7 @@
       <c r="F22">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>13</v>
       </c>
       <c r="H22">
@@ -908,7 +920,7 @@
       <c r="J22">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -917,7 +929,7 @@
       <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>13</v>
       </c>
       <c r="H23">
@@ -929,7 +941,7 @@
       <c r="J23">
         <v>4</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -938,7 +950,7 @@
       <c r="C24" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>13</v>
       </c>
       <c r="H24">
@@ -950,7 +962,7 @@
       <c r="J24">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -959,7 +971,7 @@
       <c r="C25" t="s">
         <v>17</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>13</v>
       </c>
       <c r="H25">
@@ -971,7 +983,7 @@
       <c r="J25">
         <v>4</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -980,7 +992,7 @@
       <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>13</v>
       </c>
       <c r="H26">
@@ -992,7 +1004,7 @@
       <c r="J26">
         <v>3</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>

--- a/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
+++ b/DigSite/New Arcaism/uarm 2025 1/Logica/negación de la negación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitData\ArchaeologyJourney\DigSite\New Arcaism\uarm 2025 1\Logica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86366FCC-D299-4CA2-9606-C4DAC854E38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB1891C5-BD9C-4445-8D4F-2F348D5BEE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
+    <workbookView xWindow="9870" yWindow="120" windowWidth="10395" windowHeight="10665" xr2:uid="{56AD7302-DA3A-4B0F-9A3C-1523436F7D54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t xml:space="preserve">Grupos de Lógica - Prácticas - Fernando García </t>
   </si>
@@ -42,9 +42,6 @@
     <t>María Cotrina</t>
   </si>
   <si>
-    <t>Miranda Vega</t>
-  </si>
-  <si>
     <t>Grupo 2</t>
   </si>
   <si>
@@ -78,16 +75,10 @@
     <t>Paul Escalante Cano</t>
   </si>
   <si>
-    <t>Cristopher Diaz Huamani</t>
-  </si>
-  <si>
     <t>Ximena Machacca Yucra</t>
   </si>
   <si>
     <t>Samira Ruiz</t>
-  </si>
-  <si>
-    <t>Rosa María Salazar</t>
   </si>
   <si>
     <t>Ignacio Tapia</t>
@@ -501,18 +492,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52402EC4-2AF4-43A8-AC2E-CA0615578C59}">
-  <dimension ref="B2:P26"/>
+  <dimension ref="B2:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="3.42578125" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="12" width="4.140625" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" customWidth="1"/>
+    <col min="16" max="16" width="2.42578125" customWidth="1"/>
+    <col min="17" max="18" width="1.85546875" customWidth="1"/>
+    <col min="19" max="19" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -521,56 +526,86 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>2</v>
       </c>
@@ -599,8 +634,23 @@
         <f>H5+I5+J5</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+      <c r="O5" s="1">
+        <v>19</v>
+      </c>
+      <c r="S5" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>3</v>
       </c>
@@ -617,11 +667,17 @@
         <v>3</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6:K26" si="0">H6+I6+J6</f>
+        <f t="shared" ref="K6:K22" si="0">H6+I6+J6</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="O6" s="1">
+        <v>19</v>
+      </c>
+      <c r="S6" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>4</v>
       </c>
@@ -641,379 +697,419 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="O7" s="1">
+        <v>19</v>
+      </c>
+      <c r="S7" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1">
-        <v>18</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="I8">
-        <v>5</v>
-      </c>
-      <c r="J8">
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
         <v>4</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" s="1">
+        <v>17</v>
+      </c>
+      <c r="S9" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O10" s="1">
+        <v>17</v>
+      </c>
+      <c r="S10" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G11" s="1">
         <v>18</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="O11" s="1">
+        <v>17</v>
+      </c>
+      <c r="S11" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1">
+        <v>18</v>
+      </c>
+      <c r="H12">
         <v>2</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O12" s="1">
+        <v>17</v>
+      </c>
+      <c r="S12" s="1"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="S13" s="1"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="G14" s="1">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G13" s="1">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="1">
-        <v>18</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>12</v>
+      </c>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="1">
+        <v>11</v>
+      </c>
+      <c r="H15">
+        <v>3.5</v>
+      </c>
+      <c r="I15">
+        <v>2.5</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O15" s="1">
+        <v>15</v>
+      </c>
+      <c r="S15" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>10</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>6</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
       </c>
       <c r="G16" s="1">
         <v>11</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>9.5</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="O16" s="1">
+        <v>15</v>
+      </c>
+      <c r="S16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G17" s="1">
         <v>11</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O17" s="1">
+        <v>12</v>
+      </c>
+      <c r="S17" s="1"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="S18" s="1"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>13</v>
+      </c>
+      <c r="H19">
         <v>3.5</v>
       </c>
-      <c r="I17">
-        <v>2.5</v>
-      </c>
-      <c r="J17">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1">
-        <v>11</v>
-      </c>
-      <c r="H18">
-        <v>4.5</v>
-      </c>
-      <c r="I18">
-        <v>9.5</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
+      <c r="I19">
+        <v>6.5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="1">
-        <v>11</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>18</v>
+      </c>
+      <c r="S19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+      <c r="J20">
         <v>4</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1">
-        <v>11</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="1">
+        <v>18</v>
+      </c>
+      <c r="S20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="1">
         <v>13</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>5</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O21" s="1">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>6</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="G22" s="1">
         <v>13</v>
       </c>
       <c r="H22">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="I22">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O22" s="1">
+        <v>18</v>
+      </c>
+      <c r="S22" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="1">
-        <v>13</v>
-      </c>
-      <c r="H23">
-        <v>6</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>4</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="1">
-        <v>13</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>5</v>
-      </c>
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1">
-        <v>13</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>4</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="1">
-        <v>13</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>5</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="H3:K3"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
